--- a/biology/Neurosciences/Raymond_Houdart/Raymond_Houdart.xlsx
+++ b/biology/Neurosciences/Raymond_Houdart/Raymond_Houdart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Houdart, né le 22 octobre 1913 à Melun et mort le 24 novembre 2008 à Paris[1], est un neurochirurgien français honoraire des hôpitaux, membre de l'Académie de médecine, professeur honoraire et ancien doyen de la faculté de médecine Lariboisière-Saint Louis, de l'université de Paris VII.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Houdart, né le 22 octobre 1913 à Melun et mort le 24 novembre 2008 à Paris, est un neurochirurgien français honoraire des hôpitaux, membre de l'Académie de médecine, professeur honoraire et ancien doyen de la faculté de médecine Lariboisière-Saint Louis, de l'université de Paris VII.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur
  Chevalier de l'ordre national du Mérite
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de plusieurs ouvrages de neurologie et de nombreux articles de neurologie et neurochirurgie, parmi lesquels : 
 Le cerveau de l'hominisation. Du primate à l'homme : naissance du langage, de la pensée et de la conscience,  éd. Maïade, 2002  (ISBN 2-9517987-1-7)
